--- a/file/批量添加用户信息.xlsx
+++ b/file/批量添加用户信息.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaoyuan/Online_Exam/file/batch_mode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaoyuan/Desktop/online_exam/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{97E943B8-B0AF-FF40-9F99-D45C82898D49}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05A4533-7017-9940-9500-7E7B26F8D6BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14020" windowWidth="20100" xWindow="8980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2320"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="2"/>
-    <sheet name="ClassInfo" r:id="rId2" sheetId="4" state="hidden"/>
-    <sheet name="UserType" r:id="rId3" sheetId="1" state="hidden"/>
-    <sheet name="Col_SpeInfo" r:id="rId4" sheetId="3" state="hidden"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="ClassInfo" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="UserType" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="Col_SpeInfo" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="电子信息工程学院">Col_SpeInfo!$E$2:$E$4</definedName>
+    <definedName name="服装学院">Col_SpeInfo!$B$2:$B$3</definedName>
+    <definedName name="机电与材料工程学院">Col_SpeInfo!$I$2:$I$5</definedName>
+    <definedName name="机器人工程学院">Col_SpeInfo!$D$2:$D$6</definedName>
+    <definedName name="建筑与土木工程学院">Col_SpeInfo!$J$2:$J$5</definedName>
+    <definedName name="经济管理学院">Col_SpeInfo!$C$2:$C$6</definedName>
+    <definedName name="数据科学与人工智能学院">Col_SpeInfo!$F$2:$F$6</definedName>
+    <definedName name="外语学院">Col_SpeInfo!$H$2:$H$3</definedName>
     <definedName name="艺术与传媒学院">Col_SpeInfo!$A$2:$A$6</definedName>
-    <definedName name="服装学院">Col_SpeInfo!$B$2:$B$3</definedName>
-    <definedName name="经济管理学院">Col_SpeInfo!$C$2:$C$6</definedName>
-    <definedName name="机器人工程学院">Col_SpeInfo!$D$2:$D$6</definedName>
-    <definedName name="电子信息工程学院">Col_SpeInfo!$E$2:$E$4</definedName>
-    <definedName name="数据科学与人工智能学院">Col_SpeInfo!$F$2:$F$6</definedName>
     <definedName name="智能汽车与航空学院">Col_SpeInfo!$G$2:$G$4</definedName>
-    <definedName name="外语学院">Col_SpeInfo!$H$2:$H$3</definedName>
-    <definedName name="机电与材料工程学院">Col_SpeInfo!$I$2:$I$5</definedName>
-    <definedName name="建筑与土木工程学院">Col_SpeInfo!$J$2:$J$5</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -247,7 +247,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -282,20 +281,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -312,10 +311,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -350,7 +349,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -402,7 +401,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -513,21 +512,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -544,7 +543,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -596,23 +595,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E42ACF-0144-F64B-9B34-F5D1960F8288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E42ACF-0144-F64B-9B34-F5D1960F8288}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="170" zoomScaleNormal="170">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.33203125" collapsed="false"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -644,30 +644,30 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E2:E1048576" type="list" xr:uid="{016E9DF5-AA42-9C41-A0AA-E24F0C6C7DDD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{016E9DF5-AA42-9C41-A0AA-E24F0C6C7DDD}">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="H2:H1048576" type="list" xr:uid="{5E1158A8-158B-C84F-81E1-B6F58F52549A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576" xr:uid="{5E1158A8-158B-C84F-81E1-B6F58F52549A}">
       <formula1 xml:space="preserve"> INDIRECT($G2)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{AA5FA0AA-29AC-094E-B3C0-B52E1B4999A7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA5FA0AA-29AC-094E-B3C0-B52E1B4999A7}">
           <x14:formula1>
             <xm:f>UserType!$A:$A</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{601BA9F5-F75D-2D4B-A612-6921F5ABFFDE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{601BA9F5-F75D-2D4B-A612-6921F5ABFFDE}">
           <x14:formula1>
             <xm:f>Col_SpeInfo!$1:$1</xm:f>
           </x14:formula1>
           <xm:sqref>G2:G1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{C86A816E-77D0-0B4E-A1EB-5C045DB41E55}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C86A816E-77D0-0B4E-A1EB-5C045DB41E55}">
           <x14:formula1>
             <xm:f>ClassInfo!$A:$A</xm:f>
           </x14:formula1>
@@ -680,8 +680,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407BDD24-13A6-644B-8872-EF3F2D75677B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407BDD24-13A6-644B-8872-EF3F2D75677B}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
@@ -689,55 +689,55 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -745,36 +745,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2836F39D-623A-774C-8EB9-0E348F7491B2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2836F39D-623A-774C-8EB9-0E348F7491B2}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -806,7 +806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -838,7 +838,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -870,11 +870,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B4"/>
       <c r="C4" t="s">
         <v>42</v>
       </c>
@@ -890,7 +889,6 @@
       <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="H4"/>
       <c r="I4" t="s">
         <v>47</v>
       </c>
@@ -898,23 +896,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="B5"/>
       <c r="C5" t="s">
         <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
       </c>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="G5"/>
-      <c r="H5"/>
       <c r="I5" t="s">
         <v>53</v>
       </c>
@@ -922,28 +916,22 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6"/>
       <c r="C6" t="s">
         <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
       </c>
-      <c r="E6"/>
       <c r="F6" t="s">
         <v>58</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>